--- a/LR3/teble_1_104.xlsx
+++ b/LR3/teble_1_104.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2F592C-B402-4FC9-A8FF-49F54BDDBC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE96B9B-CAB3-4E68-A705-3F0EA758A58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="5445" windowWidth="21600" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -179,13 +179,13 @@
     <t>Общая сумма</t>
   </si>
   <si>
-    <t>Средняя сумма</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки</t>
   </si>
   <si>
     <t>Максимальная сумма</t>
+  </si>
+  <si>
+    <t>Средняя площадь</t>
   </si>
 </sst>
 </file>
@@ -249,17 +249,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -542,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -557,37 +566,37 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -595,7 +604,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C3" s="1">
@@ -609,17 +618,17 @@
         <f>C3*D3</f>
         <v>8008</v>
       </c>
-      <c r="F3" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="F3" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="3">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
         <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>10</v>
       </c>
       <c r="J3" s="1">
@@ -636,10 +645,10 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
@@ -651,10 +660,10 @@
         <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>7950.8</v>
       </c>
-      <c r="F4" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="F4" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G4" s="3">
         <f>G3+1</f>
         <v>44806</v>
       </c>
@@ -662,7 +671,8 @@
         <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
@@ -679,10 +689,10 @@
         <f t="shared" ref="A5:A37" si="4">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
@@ -694,10 +704,10 @@
         <f t="shared" si="0"/>
         <v>7893.6</v>
       </c>
-      <c r="F5" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
@@ -705,7 +715,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -722,10 +733,10 @@
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
@@ -737,10 +748,10 @@
         <f t="shared" si="0"/>
         <v>7836.4000000000005</v>
       </c>
-      <c r="F6" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="7"/>
         <v>44808</v>
       </c>
@@ -748,7 +759,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -765,10 +777,10 @@
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <f t="shared" si="5"/>
         <v>68</v>
       </c>
@@ -780,10 +792,10 @@
         <f t="shared" si="0"/>
         <v>7779.2000000000007</v>
       </c>
-      <c r="F7" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="7"/>
         <v>44809</v>
       </c>
@@ -791,7 +803,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -808,10 +821,10 @@
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
@@ -823,10 +836,10 @@
         <f t="shared" si="0"/>
         <v>7722</v>
       </c>
-      <c r="F8" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="7"/>
         <v>44810</v>
       </c>
@@ -834,7 +847,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -851,10 +865,10 @@
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
@@ -866,10 +880,10 @@
         <f t="shared" si="0"/>
         <v>7664.8</v>
       </c>
-      <c r="F9" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G9" s="3">
         <f t="shared" si="7"/>
         <v>44811</v>
       </c>
@@ -877,7 +891,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -894,10 +909,10 @@
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
@@ -909,10 +924,10 @@
         <f t="shared" si="0"/>
         <v>7607.6</v>
       </c>
-      <c r="F10" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G10" s="3">
         <f t="shared" si="7"/>
         <v>44812</v>
       </c>
@@ -920,7 +935,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -937,10 +953,10 @@
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
@@ -952,10 +968,10 @@
         <f t="shared" si="0"/>
         <v>7550.4000000000005</v>
       </c>
-      <c r="F11" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G11" s="3">
         <f t="shared" si="7"/>
         <v>44813</v>
       </c>
@@ -963,7 +979,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -980,10 +997,10 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
@@ -995,10 +1012,10 @@
         <f t="shared" si="0"/>
         <v>7493.2000000000007</v>
       </c>
-      <c r="F12" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G12" s="3">
         <f t="shared" si="7"/>
         <v>44814</v>
       </c>
@@ -1006,7 +1023,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1023,10 +1041,10 @@
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
@@ -1038,10 +1056,10 @@
         <f t="shared" si="0"/>
         <v>7436</v>
       </c>
-      <c r="F13" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="3">
         <f t="shared" si="7"/>
         <v>44815</v>
       </c>
@@ -1049,7 +1067,8 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1066,10 +1085,10 @@
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
@@ -1081,10 +1100,10 @@
         <f t="shared" si="0"/>
         <v>7378.8</v>
       </c>
-      <c r="F14" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G14" s="3">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
@@ -1092,7 +1111,8 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1109,10 +1129,10 @@
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <f t="shared" si="5"/>
         <v>64</v>
       </c>
@@ -1124,10 +1144,10 @@
         <f t="shared" si="0"/>
         <v>7321.6</v>
       </c>
-      <c r="F15" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G15" s="3">
         <f t="shared" si="7"/>
         <v>44817</v>
       </c>
@@ -1135,7 +1155,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1152,10 +1173,10 @@
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
@@ -1167,10 +1188,10 @@
         <f t="shared" si="0"/>
         <v>7264.4000000000005</v>
       </c>
-      <c r="F16" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G16" s="3">
         <f t="shared" si="7"/>
         <v>44818</v>
       </c>
@@ -1178,7 +1199,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1195,10 +1217,10 @@
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <f t="shared" si="5"/>
         <v>63</v>
       </c>
@@ -1210,10 +1232,10 @@
         <f t="shared" si="0"/>
         <v>7207.2000000000007</v>
       </c>
-      <c r="F17" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G17" s="3">
         <f t="shared" si="7"/>
         <v>44819</v>
       </c>
@@ -1221,7 +1243,8 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1238,10 +1261,10 @@
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
@@ -1253,10 +1276,10 @@
         <f t="shared" si="0"/>
         <v>7150</v>
       </c>
-      <c r="F18" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G18" s="3">
         <f t="shared" si="7"/>
         <v>44820</v>
       </c>
@@ -1264,7 +1287,8 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1281,10 +1305,10 @@
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <f t="shared" si="5"/>
         <v>62</v>
       </c>
@@ -1296,10 +1320,10 @@
         <f t="shared" si="0"/>
         <v>7092.8</v>
       </c>
-      <c r="F19" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="7"/>
         <v>44821</v>
       </c>
@@ -1307,7 +1331,8 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1324,10 +1349,10 @@
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
@@ -1339,10 +1364,10 @@
         <f t="shared" si="0"/>
         <v>7035.6</v>
       </c>
-      <c r="F20" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="7"/>
         <v>44822</v>
       </c>
@@ -1350,7 +1375,8 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1367,10 +1393,10 @@
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <f t="shared" si="5"/>
         <v>61</v>
       </c>
@@ -1382,10 +1408,10 @@
         <f t="shared" si="0"/>
         <v>6978.4000000000005</v>
       </c>
-      <c r="F21" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="7"/>
         <v>44823</v>
       </c>
@@ -1393,7 +1419,8 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1410,10 +1437,10 @@
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
@@ -1425,10 +1452,10 @@
         <f t="shared" si="0"/>
         <v>6921.2000000000007</v>
       </c>
-      <c r="F22" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G22" s="3">
         <f t="shared" si="7"/>
         <v>44824</v>
       </c>
@@ -1436,7 +1463,8 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1453,10 +1481,10 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
@@ -1468,10 +1496,10 @@
         <f t="shared" si="0"/>
         <v>6864</v>
       </c>
-      <c r="F23" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G23" s="3">
         <f t="shared" si="7"/>
         <v>44825</v>
       </c>
@@ -1479,7 +1507,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1496,10 +1525,10 @@
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
@@ -1511,10 +1540,10 @@
         <f t="shared" si="0"/>
         <v>6806.8</v>
       </c>
-      <c r="F24" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="7"/>
         <v>44826</v>
       </c>
@@ -1522,7 +1551,8 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1539,10 +1569,10 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <f t="shared" si="5"/>
         <v>59</v>
       </c>
@@ -1554,10 +1584,10 @@
         <f t="shared" si="0"/>
         <v>6749.6</v>
       </c>
-      <c r="F25" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="7"/>
         <v>44827</v>
       </c>
@@ -1565,7 +1595,8 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1582,10 +1613,10 @@
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="2">
         <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
@@ -1597,10 +1628,10 @@
         <f t="shared" si="0"/>
         <v>6692.4000000000005</v>
       </c>
-      <c r="F26" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="F26" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G26" s="3">
         <f t="shared" si="7"/>
         <v>44828</v>
       </c>
@@ -1608,7 +1639,8 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1625,10 +1657,10 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <f t="shared" si="5"/>
         <v>58</v>
       </c>
@@ -1640,10 +1672,10 @@
         <f t="shared" si="0"/>
         <v>6635.2000000000007</v>
       </c>
-      <c r="F27" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="5">
+      <c r="F27" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G27" s="3">
         <f t="shared" si="7"/>
         <v>44829</v>
       </c>
@@ -1651,7 +1683,8 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1668,10 +1701,10 @@
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
@@ -1683,10 +1716,10 @@
         <f t="shared" si="0"/>
         <v>6578</v>
       </c>
-      <c r="F28" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="5">
+      <c r="F28" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G28" s="3">
         <f t="shared" si="7"/>
         <v>44830</v>
       </c>
@@ -1694,7 +1727,8 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1711,10 +1745,10 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <f t="shared" si="5"/>
         <v>57</v>
       </c>
@@ -1726,10 +1760,10 @@
         <f t="shared" si="0"/>
         <v>6520.8</v>
       </c>
-      <c r="F29" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="5">
+      <c r="F29" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G29" s="3">
         <f t="shared" si="7"/>
         <v>44831</v>
       </c>
@@ -1737,7 +1771,8 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1754,10 +1789,10 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
@@ -1769,10 +1804,10 @@
         <f t="shared" si="0"/>
         <v>6463.6</v>
       </c>
-      <c r="F30" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="5">
+      <c r="F30" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G30" s="3">
         <f t="shared" si="7"/>
         <v>44832</v>
       </c>
@@ -1780,7 +1815,8 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1797,10 +1833,10 @@
         <f>A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
@@ -1812,10 +1848,10 @@
         <f t="shared" si="0"/>
         <v>6406.4000000000005</v>
       </c>
-      <c r="F31" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="5">
+      <c r="F31" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G31" s="3">
         <f t="shared" si="7"/>
         <v>44833</v>
       </c>
@@ -1823,7 +1859,8 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1840,10 +1877,10 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
@@ -1855,10 +1892,10 @@
         <f t="shared" si="0"/>
         <v>6349.2000000000007</v>
       </c>
-      <c r="F32" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="5">
+      <c r="F32" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G32" s="3">
         <f t="shared" si="7"/>
         <v>44834</v>
       </c>
@@ -1866,7 +1903,8 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1883,10 +1921,10 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
@@ -1898,10 +1936,10 @@
         <f t="shared" si="0"/>
         <v>6292</v>
       </c>
-      <c r="F33" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="5">
+      <c r="F33" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G33" s="3">
         <f t="shared" si="7"/>
         <v>44835</v>
       </c>
@@ -1909,7 +1947,8 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1926,10 +1965,10 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
@@ -1941,10 +1980,10 @@
         <f t="shared" si="0"/>
         <v>6234.8</v>
       </c>
-      <c r="F34" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="5">
+      <c r="F34" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G34" s="3">
         <f t="shared" si="7"/>
         <v>44836</v>
       </c>
@@ -1952,7 +1991,8 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1969,14 +2009,14 @@
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="5">
         <f>D3/2</f>
         <v>57.2</v>
       </c>
@@ -1984,10 +2024,10 @@
         <f t="shared" si="0"/>
         <v>3088.8</v>
       </c>
-      <c r="F35" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="5">
+      <c r="F35" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G35" s="3">
         <f t="shared" si="7"/>
         <v>44837</v>
       </c>
@@ -1995,7 +2035,8 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2012,25 +2053,25 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="4">
-        <f t="shared" ref="D36:D38" si="8">D4/2</f>
+      <c r="D36" s="5">
+        <f t="shared" ref="D36:D38" si="9">D4/2</f>
         <v>57.2</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
         <v>3060.2000000000003</v>
       </c>
-      <c r="F36" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="5">
+      <c r="F36" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G36" s="3">
         <f t="shared" si="7"/>
         <v>44838</v>
       </c>
@@ -2038,7 +2079,8 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2055,25 +2097,25 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="4">
-        <f t="shared" si="8"/>
+      <c r="D37" s="5">
+        <f t="shared" si="9"/>
         <v>57.2</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
         <v>3031.6000000000004</v>
       </c>
-      <c r="F37" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F37" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G37" s="3">
         <f t="shared" si="7"/>
         <v>44839</v>
       </c>
@@ -2081,7 +2123,8 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2098,25 +2141,25 @@
         <f>A37+1</f>
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="4">
-        <f t="shared" si="8"/>
+      <c r="D38" s="5">
+        <f t="shared" si="9"/>
         <v>57.2</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
         <v>3003</v>
       </c>
-      <c r="F38" s="5">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F38" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="3">
         <f t="shared" si="7"/>
         <v>44840</v>
       </c>
@@ -2124,7 +2167,8 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="4">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2147,16 +2191,16 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="7">
-        <f>AVERAGE(K3:K38)</f>
-        <v>6773.5666666666666</v>
+        <v>50</v>
+      </c>
+      <c r="C41" s="6">
+        <f>AVERAGE(C3:C38)</f>
+        <v>61.25</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2165,7 +2209,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
